--- a/Experiments/Semiconductor_Laser_Diodes/room_temp.xlsx
+++ b/Experiments/Semiconductor_Laser_Diodes/room_temp.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\Semiconductor_Laser_Diodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98415\Data_Analysis\Experiments\Semiconductor_Laser_Diodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="21576" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="lvtemporary_626999" sheetId="1" r:id="rId1"/>
@@ -21,35 +21,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time - Plot 0</t>
+    <t>Photodiode Voltage[V]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Amplitude - Plot 0</t>
+    <t>Output Voltage[V]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -57,7 +59,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,7 +67,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -73,35 +75,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +111,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,14 +119,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,14 +134,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +149,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,15 +157,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -512,48 +521,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,9 +578,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -609,7 +618,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -628,7 +637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amplitude - Plot 0</c:v>
+                  <c:v>Photodiode Voltage[V]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -844,7 +853,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF63-4A58-9DF6-A31FEAAB500A}"/>
             </c:ext>
@@ -858,11 +867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="373157392"/>
-        <c:axId val="373158376"/>
+        <c:axId val="1543244304"/>
+        <c:axId val="1543244848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="373157392"/>
+        <c:axId val="1543244304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,15 +925,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373158376"/>
+        <c:crossAx val="1543244848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="373158376"/>
+        <c:axId val="1543244848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,10 +987,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373157392"/>
+        <c:crossAx val="1543244304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1019,7 +1028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1886,22 +1895,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2138,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>